--- a/Bases_de_Dados_(2022-2023)/England National League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England National League_20222023.xlsx
@@ -1069,6 +1069,9 @@
     <t>['57', '90']</t>
   </si>
   <si>
+    <t>['49', '75']</t>
+  </si>
+  <si>
     <t>['37', '45+1', '56']</t>
   </si>
   <si>
@@ -1076,9 +1079,6 @@
   </si>
   <si>
     <t>['6', '24']</t>
-  </si>
-  <si>
-    <t>['49', '75']</t>
   </si>
   <si>
     <t>['31', '72']</t>
@@ -1102,9 +1102,6 @@
     <t>['1']</t>
   </si>
   <si>
-    <t>['23', '32']</t>
-  </si>
-  <si>
     <t>['7', '56']</t>
   </si>
   <si>
@@ -1112,6 +1109,9 @@
   </si>
   <si>
     <t>['11', '45', '51', '77']</t>
+  </si>
+  <si>
+    <t>['23', '32']</t>
   </si>
   <si>
     <t>['7', '10', '74']</t>
@@ -1585,10 +1585,10 @@
     <t>['45+3', '66', '72']</t>
   </si>
   <si>
-    <t>['3', '74']</t>
+    <t>['6', '39', '49', '68']</t>
   </si>
   <si>
-    <t>['6', '39', '49', '68']</t>
+    <t>['3', '74']</t>
   </si>
   <si>
     <t>['14', '65']</t>
@@ -81629,7 +81629,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>2803589</v>
+        <v>2803588</v>
       </c>
       <c r="C418" t="s">
         <v>63</v>
@@ -81644,58 +81644,58 @@
         <v>37</v>
       </c>
       <c r="G418" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H418" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I418">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K418">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L418">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M418">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N418">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O418" t="s">
         <v>351</v>
       </c>
       <c r="P418" t="s">
-        <v>523</v>
+        <v>93</v>
       </c>
       <c r="Q418">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R418">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S418">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T418">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U418">
         <v>2.2</v>
       </c>
       <c r="V418">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="W418">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X418">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y418">
         <v>2.75</v>
@@ -81704,19 +81704,19 @@
         <v>1.4</v>
       </c>
       <c r="AA418">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB418">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC418">
-        <v>1.96</v>
+        <v>2.67</v>
       </c>
       <c r="AD418">
-        <v>3.72</v>
+        <v>3.42</v>
       </c>
       <c r="AE418">
-        <v>3.22</v>
+        <v>2.36</v>
       </c>
       <c r="AF418">
         <v>1.03</v>
@@ -81725,94 +81725,94 @@
         <v>14</v>
       </c>
       <c r="AH418">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AI418">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="AJ418">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AK418">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AL418">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AM418">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AN418">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
       <c r="AO418">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AP418">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AQ418">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="AR418">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS418">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AT418">
-        <v>0.72</v>
+        <v>0.95</v>
       </c>
       <c r="AU418">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="AV418">
-        <v>1.13</v>
+        <v>1.49</v>
       </c>
       <c r="AW418">
-        <v>2.83</v>
+        <v>2.9</v>
       </c>
       <c r="AX418">
-        <v>1.47</v>
+        <v>2.11</v>
       </c>
       <c r="AY418">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ418">
-        <v>3.2</v>
+        <v>1.96</v>
       </c>
       <c r="BA418">
         <v>0</v>
       </c>
       <c r="BB418">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BC418">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="BD418">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="BE418">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="BF418">
+        <v>5</v>
+      </c>
+      <c r="BG418">
+        <v>3</v>
+      </c>
+      <c r="BH418">
         <v>6</v>
       </c>
-      <c r="BG418">
-        <v>5</v>
-      </c>
-      <c r="BH418">
-        <v>9</v>
-      </c>
       <c r="BI418">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ418">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BK418">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="419" spans="1:63">
@@ -81862,7 +81862,7 @@
         <v>93</v>
       </c>
       <c r="P419" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Q419">
         <v>3</v>
@@ -82011,7 +82011,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>2803590</v>
+        <v>2803589</v>
       </c>
       <c r="C420" t="s">
         <v>63</v>
@@ -82026,58 +82026,58 @@
         <v>37</v>
       </c>
       <c r="G420" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H420" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J420">
         <v>1</v>
       </c>
       <c r="K420">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L420">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M420">
         <v>2</v>
       </c>
       <c r="N420">
+        <v>5</v>
+      </c>
+      <c r="O420" t="s">
+        <v>352</v>
+      </c>
+      <c r="P420" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q420">
         <v>3</v>
       </c>
-      <c r="O420" t="s">
-        <v>169</v>
-      </c>
-      <c r="P420" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q420">
-        <v>2</v>
-      </c>
       <c r="R420">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S420">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T420">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U420">
         <v>2.2</v>
       </c>
       <c r="V420">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="W420">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X420">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y420">
         <v>2.75</v>
@@ -82086,97 +82086,97 @@
         <v>1.4</v>
       </c>
       <c r="AA420">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB420">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC420">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="AD420">
-        <v>3.23</v>
+        <v>3.72</v>
       </c>
       <c r="AE420">
-        <v>2.72</v>
+        <v>3.22</v>
       </c>
       <c r="AF420">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AG420">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH420">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AI420">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AJ420">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="AK420">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AL420">
+        <v>1.8</v>
+      </c>
+      <c r="AM420">
+        <v>1.95</v>
+      </c>
+      <c r="AN420">
+        <v>1.31</v>
+      </c>
+      <c r="AO420">
+        <v>1.25</v>
+      </c>
+      <c r="AP420">
+        <v>1.8</v>
+      </c>
+      <c r="AQ420">
+        <v>1.35</v>
+      </c>
+      <c r="AR420">
+        <v>0.75</v>
+      </c>
+      <c r="AS420">
+        <v>1.6</v>
+      </c>
+      <c r="AT420">
+        <v>0.72</v>
+      </c>
+      <c r="AU420">
         <v>1.7</v>
       </c>
-      <c r="AM420">
-        <v>2.05</v>
-      </c>
-      <c r="AN420">
-        <v>1.45</v>
-      </c>
-      <c r="AO420">
-        <v>1.3</v>
-      </c>
-      <c r="AP420">
-        <v>1.42</v>
-      </c>
-      <c r="AQ420">
-        <v>1.72</v>
-      </c>
-      <c r="AR420">
-        <v>1.41</v>
-      </c>
-      <c r="AS420">
-        <v>1.55</v>
-      </c>
-      <c r="AT420">
+      <c r="AV420">
+        <v>1.13</v>
+      </c>
+      <c r="AW420">
+        <v>2.83</v>
+      </c>
+      <c r="AX420">
+        <v>1.47</v>
+      </c>
+      <c r="AY420">
+        <v>8</v>
+      </c>
+      <c r="AZ420">
+        <v>3.2</v>
+      </c>
+      <c r="BA420">
+        <v>0</v>
+      </c>
+      <c r="BB420">
+        <v>1.33</v>
+      </c>
+      <c r="BC420">
         <v>1.65</v>
       </c>
-      <c r="AU420">
-        <v>1.97</v>
-      </c>
-      <c r="AV420">
-        <v>1.53</v>
-      </c>
-      <c r="AW420">
-        <v>3.5</v>
-      </c>
-      <c r="AX420">
-        <v>2.1</v>
-      </c>
-      <c r="AY420">
-        <v>7.3</v>
-      </c>
-      <c r="AZ420">
-        <v>1.98</v>
-      </c>
-      <c r="BA420">
-        <v>1.18</v>
-      </c>
-      <c r="BB420">
-        <v>1.36</v>
-      </c>
-      <c r="BC420">
-        <v>1.73</v>
-      </c>
       <c r="BD420">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="BE420">
-        <v>2.79</v>
+        <v>2.6</v>
       </c>
       <c r="BF420">
         <v>6</v>
@@ -82185,16 +82185,16 @@
         <v>5</v>
       </c>
       <c r="BH420">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI420">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ420">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK420">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" spans="1:63">
@@ -82241,7 +82241,7 @@
         <v>3</v>
       </c>
       <c r="O421" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P421" t="s">
         <v>103</v>
@@ -82584,7 +82584,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>2803591</v>
+        <v>2803590</v>
       </c>
       <c r="C423" t="s">
         <v>63</v>
@@ -82599,175 +82599,175 @@
         <v>37</v>
       </c>
       <c r="G423" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H423" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I423">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K423">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L423">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M423">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N423">
         <v>3</v>
       </c>
       <c r="O423" t="s">
-        <v>353</v>
+        <v>169</v>
       </c>
       <c r="P423" t="s">
-        <v>299</v>
+        <v>525</v>
       </c>
       <c r="Q423">
+        <v>2</v>
+      </c>
+      <c r="R423">
+        <v>7</v>
+      </c>
+      <c r="S423">
+        <v>9</v>
+      </c>
+      <c r="T423">
         <v>3</v>
       </c>
-      <c r="R423">
+      <c r="U423">
+        <v>2.2</v>
+      </c>
+      <c r="V423">
+        <v>3.4</v>
+      </c>
+      <c r="W423">
+        <v>1.36</v>
+      </c>
+      <c r="X423">
         <v>3</v>
       </c>
-      <c r="S423">
+      <c r="Y423">
+        <v>2.75</v>
+      </c>
+      <c r="Z423">
+        <v>1.4</v>
+      </c>
+      <c r="AA423">
+        <v>7</v>
+      </c>
+      <c r="AB423">
+        <v>1.1</v>
+      </c>
+      <c r="AC423">
+        <v>2.42</v>
+      </c>
+      <c r="AD423">
+        <v>3.23</v>
+      </c>
+      <c r="AE423">
+        <v>2.72</v>
+      </c>
+      <c r="AF423">
+        <v>1.05</v>
+      </c>
+      <c r="AG423">
+        <v>11</v>
+      </c>
+      <c r="AH423">
+        <v>1.3</v>
+      </c>
+      <c r="AI423">
+        <v>3.3</v>
+      </c>
+      <c r="AJ423">
+        <v>1.85</v>
+      </c>
+      <c r="AK423">
+        <v>1.85</v>
+      </c>
+      <c r="AL423">
+        <v>1.7</v>
+      </c>
+      <c r="AM423">
+        <v>2.05</v>
+      </c>
+      <c r="AN423">
+        <v>1.45</v>
+      </c>
+      <c r="AO423">
+        <v>1.3</v>
+      </c>
+      <c r="AP423">
+        <v>1.42</v>
+      </c>
+      <c r="AQ423">
+        <v>1.72</v>
+      </c>
+      <c r="AR423">
+        <v>1.41</v>
+      </c>
+      <c r="AS423">
+        <v>1.55</v>
+      </c>
+      <c r="AT423">
+        <v>1.65</v>
+      </c>
+      <c r="AU423">
+        <v>1.97</v>
+      </c>
+      <c r="AV423">
+        <v>1.53</v>
+      </c>
+      <c r="AW423">
+        <v>3.5</v>
+      </c>
+      <c r="AX423">
+        <v>2.1</v>
+      </c>
+      <c r="AY423">
+        <v>7.3</v>
+      </c>
+      <c r="AZ423">
+        <v>1.98</v>
+      </c>
+      <c r="BA423">
+        <v>1.18</v>
+      </c>
+      <c r="BB423">
+        <v>1.36</v>
+      </c>
+      <c r="BC423">
+        <v>1.73</v>
+      </c>
+      <c r="BD423">
+        <v>2.14</v>
+      </c>
+      <c r="BE423">
+        <v>2.79</v>
+      </c>
+      <c r="BF423">
         <v>6</v>
       </c>
-      <c r="T423">
-        <v>2.75</v>
-      </c>
-      <c r="U423">
-        <v>2.25</v>
-      </c>
-      <c r="V423">
-        <v>3.75</v>
-      </c>
-      <c r="W423">
-        <v>1.33</v>
-      </c>
-      <c r="X423">
-        <v>3.25</v>
-      </c>
-      <c r="Y423">
-        <v>2.63</v>
-      </c>
-      <c r="Z423">
-        <v>1.44</v>
-      </c>
-      <c r="AA423">
-        <v>6.5</v>
-      </c>
-      <c r="AB423">
-        <v>1.11</v>
-      </c>
-      <c r="AC423">
-        <v>1.92</v>
-      </c>
-      <c r="AD423">
-        <v>3.45</v>
-      </c>
-      <c r="AE423">
-        <v>3.58</v>
-      </c>
-      <c r="AF423">
-        <v>1.03</v>
-      </c>
-      <c r="AG423">
-        <v>9</v>
-      </c>
-      <c r="AH423">
-        <v>1.25</v>
-      </c>
-      <c r="AI423">
-        <v>3.6</v>
-      </c>
-      <c r="AJ423">
-        <v>1.82</v>
-      </c>
-      <c r="AK423">
-        <v>1.88</v>
-      </c>
-      <c r="AL423">
-        <v>1.62</v>
-      </c>
-      <c r="AM423">
-        <v>2.2</v>
-      </c>
-      <c r="AN423">
-        <v>1.28</v>
-      </c>
-      <c r="AO423">
-        <v>1.22</v>
-      </c>
-      <c r="AP423">
-        <v>1.72</v>
-      </c>
-      <c r="AQ423">
-        <v>1.75</v>
-      </c>
-      <c r="AR423">
-        <v>0.44</v>
-      </c>
-      <c r="AS423">
-        <v>1.72</v>
-      </c>
-      <c r="AT423">
-        <v>0.4</v>
-      </c>
-      <c r="AU423">
-        <v>1.43</v>
-      </c>
-      <c r="AV423">
-        <v>1.18</v>
-      </c>
-      <c r="AW423">
-        <v>2.61</v>
-      </c>
-      <c r="AX423">
-        <v>1.77</v>
-      </c>
-      <c r="AY423">
-        <v>7.5</v>
-      </c>
-      <c r="AZ423">
-        <v>2.38</v>
-      </c>
-      <c r="BA423">
-        <v>0</v>
-      </c>
-      <c r="BB423">
-        <v>1.35</v>
-      </c>
-      <c r="BC423">
-        <v>1.7</v>
-      </c>
-      <c r="BD423">
-        <v>2.1</v>
-      </c>
-      <c r="BE423">
-        <v>2.75</v>
-      </c>
-      <c r="BF423">
-        <v>4</v>
-      </c>
       <c r="BG423">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH423">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI423">
         <v>3</v>
       </c>
       <c r="BJ423">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK423">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424" spans="1:63">
@@ -82775,7 +82775,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>2803592</v>
+        <v>2803591</v>
       </c>
       <c r="C424" t="s">
         <v>63</v>
@@ -82790,172 +82790,172 @@
         <v>37</v>
       </c>
       <c r="G424" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H424" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I424">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J424">
         <v>0</v>
       </c>
       <c r="K424">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N424">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O424" t="s">
-        <v>138</v>
+        <v>354</v>
       </c>
       <c r="P424" t="s">
-        <v>93</v>
+        <v>299</v>
       </c>
       <c r="Q424">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R424">
         <v>3</v>
       </c>
       <c r="S424">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T424">
+        <v>2.75</v>
+      </c>
+      <c r="U424">
+        <v>2.25</v>
+      </c>
+      <c r="V424">
+        <v>3.75</v>
+      </c>
+      <c r="W424">
+        <v>1.33</v>
+      </c>
+      <c r="X424">
+        <v>3.25</v>
+      </c>
+      <c r="Y424">
+        <v>2.63</v>
+      </c>
+      <c r="Z424">
+        <v>1.44</v>
+      </c>
+      <c r="AA424">
+        <v>6.5</v>
+      </c>
+      <c r="AB424">
+        <v>1.11</v>
+      </c>
+      <c r="AC424">
+        <v>1.92</v>
+      </c>
+      <c r="AD424">
+        <v>3.45</v>
+      </c>
+      <c r="AE424">
+        <v>3.58</v>
+      </c>
+      <c r="AF424">
+        <v>1.03</v>
+      </c>
+      <c r="AG424">
+        <v>9</v>
+      </c>
+      <c r="AH424">
+        <v>1.25</v>
+      </c>
+      <c r="AI424">
         <v>3.6</v>
       </c>
-      <c r="U424">
-        <v>2.05</v>
-      </c>
-      <c r="V424">
-        <v>3.2</v>
-      </c>
-      <c r="W424">
-        <v>1.44</v>
-      </c>
-      <c r="X424">
-        <v>2.63</v>
-      </c>
-      <c r="Y424">
-        <v>3.25</v>
-      </c>
-      <c r="Z424">
-        <v>1.33</v>
-      </c>
-      <c r="AA424">
+      <c r="AJ424">
+        <v>1.82</v>
+      </c>
+      <c r="AK424">
+        <v>1.88</v>
+      </c>
+      <c r="AL424">
+        <v>1.62</v>
+      </c>
+      <c r="AM424">
+        <v>2.2</v>
+      </c>
+      <c r="AN424">
+        <v>1.28</v>
+      </c>
+      <c r="AO424">
+        <v>1.22</v>
+      </c>
+      <c r="AP424">
+        <v>1.72</v>
+      </c>
+      <c r="AQ424">
+        <v>1.75</v>
+      </c>
+      <c r="AR424">
+        <v>0.44</v>
+      </c>
+      <c r="AS424">
+        <v>1.72</v>
+      </c>
+      <c r="AT424">
+        <v>0.4</v>
+      </c>
+      <c r="AU424">
+        <v>1.43</v>
+      </c>
+      <c r="AV424">
+        <v>1.18</v>
+      </c>
+      <c r="AW424">
+        <v>2.61</v>
+      </c>
+      <c r="AX424">
+        <v>1.77</v>
+      </c>
+      <c r="AY424">
+        <v>7.5</v>
+      </c>
+      <c r="AZ424">
+        <v>2.38</v>
+      </c>
+      <c r="BA424">
+        <v>0</v>
+      </c>
+      <c r="BB424">
+        <v>1.35</v>
+      </c>
+      <c r="BC424">
+        <v>1.7</v>
+      </c>
+      <c r="BD424">
+        <v>2.1</v>
+      </c>
+      <c r="BE424">
+        <v>2.75</v>
+      </c>
+      <c r="BF424">
+        <v>4</v>
+      </c>
+      <c r="BG424">
+        <v>3</v>
+      </c>
+      <c r="BH424">
+        <v>5</v>
+      </c>
+      <c r="BI424">
+        <v>3</v>
+      </c>
+      <c r="BJ424">
         <v>9</v>
-      </c>
-      <c r="AB424">
-        <v>1.07</v>
-      </c>
-      <c r="AC424">
-        <v>3.02</v>
-      </c>
-      <c r="AD424">
-        <v>3.22</v>
-      </c>
-      <c r="AE424">
-        <v>2.24</v>
-      </c>
-      <c r="AF424">
-        <v>1.06</v>
-      </c>
-      <c r="AG424">
-        <v>9.5</v>
-      </c>
-      <c r="AH424">
-        <v>1.34</v>
-      </c>
-      <c r="AI424">
-        <v>3</v>
-      </c>
-      <c r="AJ424">
-        <v>1.9</v>
-      </c>
-      <c r="AK424">
-        <v>1.78</v>
-      </c>
-      <c r="AL424">
-        <v>1.91</v>
-      </c>
-      <c r="AM424">
-        <v>1.91</v>
-      </c>
-      <c r="AN424">
-        <v>1.47</v>
-      </c>
-      <c r="AO424">
-        <v>1.37</v>
-      </c>
-      <c r="AP424">
-        <v>1.32</v>
-      </c>
-      <c r="AQ424">
-        <v>1.28</v>
-      </c>
-      <c r="AR424">
-        <v>1.06</v>
-      </c>
-      <c r="AS424">
-        <v>1.37</v>
-      </c>
-      <c r="AT424">
-        <v>0.95</v>
-      </c>
-      <c r="AU424">
-        <v>1.08</v>
-      </c>
-      <c r="AV424">
-        <v>1.47</v>
-      </c>
-      <c r="AW424">
-        <v>2.55</v>
-      </c>
-      <c r="AX424">
-        <v>1.97</v>
-      </c>
-      <c r="AY424">
-        <v>7.3</v>
-      </c>
-      <c r="AZ424">
-        <v>2.11</v>
-      </c>
-      <c r="BA424">
-        <v>1.21</v>
-      </c>
-      <c r="BB424">
-        <v>1.4</v>
-      </c>
-      <c r="BC424">
-        <v>1.78</v>
-      </c>
-      <c r="BD424">
-        <v>2.21</v>
-      </c>
-      <c r="BE424">
-        <v>2.93</v>
-      </c>
-      <c r="BF424">
-        <v>6</v>
-      </c>
-      <c r="BG424">
-        <v>2</v>
-      </c>
-      <c r="BH424">
-        <v>2</v>
-      </c>
-      <c r="BI424">
-        <v>4</v>
-      </c>
-      <c r="BJ424">
-        <v>8</v>
       </c>
       <c r="BK424">
         <v>6</v>
@@ -82966,7 +82966,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>2803586</v>
+        <v>2803592</v>
       </c>
       <c r="C425" t="s">
         <v>63</v>
@@ -82981,10 +82981,10 @@
         <v>37</v>
       </c>
       <c r="G425" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H425" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I425">
         <v>0</v>
@@ -82996,37 +82996,37 @@
         <v>0</v>
       </c>
       <c r="L425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N425">
         <v>1</v>
       </c>
       <c r="O425" t="s">
+        <v>138</v>
+      </c>
+      <c r="P425" t="s">
         <v>93</v>
-      </c>
-      <c r="P425" t="s">
-        <v>106</v>
       </c>
       <c r="Q425">
         <v>4</v>
       </c>
       <c r="R425">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S425">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T425">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="U425">
         <v>2.05</v>
       </c>
       <c r="V425">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="W425">
         <v>1.44</v>
@@ -83041,28 +83041,28 @@
         <v>1.33</v>
       </c>
       <c r="AA425">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB425">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC425">
-        <v>2.84</v>
+        <v>3.02</v>
       </c>
       <c r="AD425">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="AE425">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="AF425">
         <v>1.06</v>
       </c>
       <c r="AG425">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH425">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AI425">
         <v>3</v>
@@ -83074,82 +83074,82 @@
         <v>1.78</v>
       </c>
       <c r="AL425">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AM425">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AN425">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AO425">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AP425">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AQ425">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="AR425">
-        <v>1.67</v>
+        <v>1.06</v>
       </c>
       <c r="AS425">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AT425">
-        <v>1.65</v>
+        <v>0.95</v>
       </c>
       <c r="AU425">
-        <v>1.68</v>
+        <v>1.08</v>
       </c>
       <c r="AV425">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AW425">
-        <v>3.07</v>
+        <v>2.55</v>
       </c>
       <c r="AX425">
-        <v>2.23</v>
+        <v>1.97</v>
       </c>
       <c r="AY425">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AZ425">
-        <v>1.87</v>
+        <v>2.11</v>
       </c>
       <c r="BA425">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="BB425">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BC425">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="BD425">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="BE425">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="BF425">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG425">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH425">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI425">
         <v>4</v>
       </c>
       <c r="BJ425">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BK425">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="426" spans="1:63">
@@ -83157,7 +83157,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>2803587</v>
+        <v>2803586</v>
       </c>
       <c r="C426" t="s">
         <v>63</v>
@@ -83172,10 +83172,10 @@
         <v>37</v>
       </c>
       <c r="G426" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H426" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I426">
         <v>0</v>
@@ -83187,76 +83187,76 @@
         <v>0</v>
       </c>
       <c r="L426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N426">
         <v>1</v>
       </c>
       <c r="O426" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="P426" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="Q426">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R426">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S426">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T426">
         <v>3.75</v>
       </c>
       <c r="U426">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V426">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="W426">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X426">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y426">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Z426">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AA426">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB426">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC426">
-        <v>3.07</v>
+        <v>2.84</v>
       </c>
       <c r="AD426">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="AE426">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AF426">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG426">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="AH426">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AI426">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AJ426">
         <v>1.9</v>
@@ -83265,82 +83265,82 @@
         <v>1.78</v>
       </c>
       <c r="AL426">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AM426">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AN426">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="AO426">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AP426">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AQ426">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="AR426">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AS426">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT426">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AU426">
-        <v>1.41</v>
+        <v>1.68</v>
       </c>
       <c r="AV426">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AW426">
-        <v>2.94</v>
+        <v>3.07</v>
       </c>
       <c r="AX426">
-        <v>2.39</v>
+        <v>2.23</v>
       </c>
       <c r="AY426">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AZ426">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="BA426">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="BB426">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="BC426">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="BD426">
-        <v>2.39</v>
+        <v>2.15</v>
       </c>
       <c r="BE426">
-        <v>3.34</v>
+        <v>2.84</v>
       </c>
       <c r="BF426">
+        <v>0</v>
+      </c>
+      <c r="BG426">
+        <v>5</v>
+      </c>
+      <c r="BH426">
         <v>3</v>
       </c>
-      <c r="BG426">
-        <v>2</v>
-      </c>
-      <c r="BH426">
-        <v>5</v>
-      </c>
       <c r="BI426">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ426">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BK426">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="427" spans="1:63">
@@ -83348,7 +83348,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>2803588</v>
+        <v>2803587</v>
       </c>
       <c r="C427" t="s">
         <v>63</v>
@@ -83363,10 +83363,10 @@
         <v>37</v>
       </c>
       <c r="G427" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H427" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I427">
         <v>0</v>
@@ -83378,43 +83378,43 @@
         <v>0</v>
       </c>
       <c r="L427">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M427">
         <v>0</v>
       </c>
       <c r="N427">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O427" t="s">
-        <v>354</v>
+        <v>116</v>
       </c>
       <c r="P427" t="s">
         <v>93</v>
       </c>
       <c r="Q427">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R427">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S427">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T427">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U427">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V427">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="W427">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X427">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y427">
         <v>2.75</v>
@@ -83423,115 +83423,115 @@
         <v>1.4</v>
       </c>
       <c r="AA427">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB427">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC427">
-        <v>2.67</v>
+        <v>3.07</v>
       </c>
       <c r="AD427">
-        <v>3.42</v>
+        <v>3.23</v>
       </c>
       <c r="AE427">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AF427">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG427">
-        <v>14</v>
+        <v>10.75</v>
       </c>
       <c r="AH427">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AI427">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="AJ427">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AK427">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AL427">
+        <v>1.75</v>
+      </c>
+      <c r="AM427">
+        <v>2</v>
+      </c>
+      <c r="AN427">
         <v>1.7</v>
       </c>
-      <c r="AM427">
-        <v>2.05</v>
-      </c>
-      <c r="AN427">
-        <v>1.56</v>
-      </c>
       <c r="AO427">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AP427">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="AQ427">
-        <v>1</v>
+        <v>1.59</v>
       </c>
       <c r="AR427">
-        <v>0.9399999999999999</v>
+        <v>1.83</v>
       </c>
       <c r="AS427">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AT427">
-        <v>0.95</v>
+        <v>1.74</v>
       </c>
       <c r="AU427">
         <v>1.41</v>
       </c>
       <c r="AV427">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AW427">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="AX427">
-        <v>2.11</v>
+        <v>2.39</v>
       </c>
       <c r="AY427">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AZ427">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="BA427">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="BB427">
-        <v>1.34</v>
+        <v>1.56</v>
       </c>
       <c r="BC427">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="BD427">
-        <v>2.06</v>
+        <v>2.39</v>
       </c>
       <c r="BE427">
-        <v>2.67</v>
+        <v>3.34</v>
       </c>
       <c r="BF427">
+        <v>3</v>
+      </c>
+      <c r="BG427">
+        <v>2</v>
+      </c>
+      <c r="BH427">
         <v>5</v>
       </c>
-      <c r="BG427">
-        <v>3</v>
-      </c>
-      <c r="BH427">
+      <c r="BI427">
         <v>6</v>
       </c>
-      <c r="BI427">
-        <v>3</v>
-      </c>
       <c r="BJ427">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BK427">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="428" spans="1:63">
@@ -83539,7 +83539,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>2803597</v>
+        <v>2803596</v>
       </c>
       <c r="C428" t="s">
         <v>63</v>
@@ -83554,175 +83554,175 @@
         <v>38</v>
       </c>
       <c r="G428" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H428" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K428">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L428">
         <v>1</v>
       </c>
       <c r="M428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N428">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O428" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="P428" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="Q428">
+        <v>8</v>
+      </c>
+      <c r="R428">
+        <v>0</v>
+      </c>
+      <c r="S428">
+        <v>8</v>
+      </c>
+      <c r="T428">
+        <v>2</v>
+      </c>
+      <c r="U428">
+        <v>2.3</v>
+      </c>
+      <c r="V428">
+        <v>6.5</v>
+      </c>
+      <c r="W428">
+        <v>1.36</v>
+      </c>
+      <c r="X428">
+        <v>3</v>
+      </c>
+      <c r="Y428">
+        <v>2.63</v>
+      </c>
+      <c r="Z428">
+        <v>1.44</v>
+      </c>
+      <c r="AA428">
+        <v>7</v>
+      </c>
+      <c r="AB428">
+        <v>1.1</v>
+      </c>
+      <c r="AC428">
+        <v>1.4</v>
+      </c>
+      <c r="AD428">
+        <v>4.2</v>
+      </c>
+      <c r="AE428">
+        <v>7</v>
+      </c>
+      <c r="AF428">
+        <v>1.04</v>
+      </c>
+      <c r="AG428">
+        <v>13</v>
+      </c>
+      <c r="AH428">
+        <v>1.25</v>
+      </c>
+      <c r="AI428">
+        <v>3.75</v>
+      </c>
+      <c r="AJ428">
+        <v>1.75</v>
+      </c>
+      <c r="AK428">
+        <v>1.91</v>
+      </c>
+      <c r="AL428">
+        <v>1.95</v>
+      </c>
+      <c r="AM428">
+        <v>1.8</v>
+      </c>
+      <c r="AN428">
+        <v>1.09</v>
+      </c>
+      <c r="AO428">
+        <v>1.19</v>
+      </c>
+      <c r="AP428">
+        <v>2.54</v>
+      </c>
+      <c r="AQ428">
+        <v>2</v>
+      </c>
+      <c r="AR428">
+        <v>0.67</v>
+      </c>
+      <c r="AS428">
+        <v>1.94</v>
+      </c>
+      <c r="AT428">
+        <v>0.67</v>
+      </c>
+      <c r="AU428">
+        <v>1.96</v>
+      </c>
+      <c r="AV428">
+        <v>1.16</v>
+      </c>
+      <c r="AW428">
+        <v>3.12</v>
+      </c>
+      <c r="AX428">
+        <v>1.11</v>
+      </c>
+      <c r="AY428">
+        <v>11.75</v>
+      </c>
+      <c r="AZ428">
+        <v>7.5</v>
+      </c>
+      <c r="BA428">
+        <v>0</v>
+      </c>
+      <c r="BB428">
+        <v>1.32</v>
+      </c>
+      <c r="BC428">
+        <v>1.63</v>
+      </c>
+      <c r="BD428">
+        <v>2</v>
+      </c>
+      <c r="BE428">
+        <v>2.6</v>
+      </c>
+      <c r="BF428">
         <v>6</v>
       </c>
-      <c r="R428">
-        <v>5</v>
-      </c>
-      <c r="S428">
-        <v>11</v>
-      </c>
-      <c r="T428">
-        <v>2.63</v>
-      </c>
-      <c r="U428">
-        <v>2.1</v>
-      </c>
-      <c r="V428">
-        <v>4.33</v>
-      </c>
-      <c r="W428">
-        <v>1.4</v>
-      </c>
-      <c r="X428">
-        <v>2.75</v>
-      </c>
-      <c r="Y428">
+      <c r="BG428">
         <v>3</v>
       </c>
-      <c r="Z428">
-        <v>1.36</v>
-      </c>
-      <c r="AA428">
-        <v>8</v>
-      </c>
-      <c r="AB428">
-        <v>1.08</v>
-      </c>
-      <c r="AC428">
-        <v>2</v>
-      </c>
-      <c r="AD428">
-        <v>3.35</v>
-      </c>
-      <c r="AE428">
-        <v>3.25</v>
-      </c>
-      <c r="AF428">
-        <v>1.05</v>
-      </c>
-      <c r="AG428">
-        <v>11.5</v>
-      </c>
-      <c r="AH428">
-        <v>1.33</v>
-      </c>
-      <c r="AI428">
-        <v>3.2</v>
-      </c>
-      <c r="AJ428">
-        <v>1.91</v>
-      </c>
-      <c r="AK428">
-        <v>1.73</v>
-      </c>
-      <c r="AL428">
-        <v>1.91</v>
-      </c>
-      <c r="AM428">
-        <v>1.91</v>
-      </c>
-      <c r="AN428">
-        <v>1.29</v>
-      </c>
-      <c r="AO428">
-        <v>1.28</v>
-      </c>
-      <c r="AP428">
-        <v>1.71</v>
-      </c>
-      <c r="AQ428">
-        <v>2.17</v>
-      </c>
-      <c r="AR428">
-        <v>0.82</v>
-      </c>
-      <c r="AS428">
-        <v>2.25</v>
-      </c>
-      <c r="AT428">
-        <v>0.79</v>
-      </c>
-      <c r="AU428">
-        <v>1.53</v>
-      </c>
-      <c r="AV428">
-        <v>1.33</v>
-      </c>
-      <c r="AW428">
-        <v>2.86</v>
-      </c>
-      <c r="AX428">
-        <v>1.62</v>
-      </c>
-      <c r="AY428">
-        <v>7.6</v>
-      </c>
-      <c r="AZ428">
-        <v>2.71</v>
-      </c>
-      <c r="BA428">
-        <v>1.23</v>
-      </c>
-      <c r="BB428">
-        <v>1.51</v>
-      </c>
-      <c r="BC428">
-        <v>1.84</v>
-      </c>
-      <c r="BD428">
-        <v>2.28</v>
-      </c>
-      <c r="BE428">
-        <v>3.08</v>
-      </c>
-      <c r="BF428">
-        <v>3</v>
-      </c>
-      <c r="BG428">
-        <v>0</v>
-      </c>
       <c r="BH428">
+        <v>7</v>
+      </c>
+      <c r="BI428">
+        <v>1</v>
+      </c>
+      <c r="BJ428">
+        <v>13</v>
+      </c>
+      <c r="BK428">
         <v>4</v>
-      </c>
-      <c r="BI428">
-        <v>6</v>
-      </c>
-      <c r="BJ428">
-        <v>7</v>
-      </c>
-      <c r="BK428">
-        <v>6</v>
       </c>
     </row>
     <row r="429" spans="1:63">
@@ -84303,7 +84303,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>2803596</v>
+        <v>2803597</v>
       </c>
       <c r="C432" t="s">
         <v>63</v>
@@ -84318,175 +84318,175 @@
         <v>38</v>
       </c>
       <c r="G432" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H432" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K432">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L432">
         <v>1</v>
       </c>
       <c r="M432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N432">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O432" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="P432" t="s">
-        <v>306</v>
+        <v>93</v>
       </c>
       <c r="Q432">
+        <v>6</v>
+      </c>
+      <c r="R432">
+        <v>5</v>
+      </c>
+      <c r="S432">
+        <v>11</v>
+      </c>
+      <c r="T432">
+        <v>2.63</v>
+      </c>
+      <c r="U432">
+        <v>2.1</v>
+      </c>
+      <c r="V432">
+        <v>4.33</v>
+      </c>
+      <c r="W432">
+        <v>1.4</v>
+      </c>
+      <c r="X432">
+        <v>2.75</v>
+      </c>
+      <c r="Y432">
+        <v>3</v>
+      </c>
+      <c r="Z432">
+        <v>1.36</v>
+      </c>
+      <c r="AA432">
         <v>8</v>
       </c>
-      <c r="R432">
-        <v>0</v>
-      </c>
-      <c r="S432">
-        <v>8</v>
-      </c>
-      <c r="T432">
-        <v>2</v>
-      </c>
-      <c r="U432">
-        <v>2.3</v>
-      </c>
-      <c r="V432">
-        <v>6.5</v>
-      </c>
-      <c r="W432">
-        <v>1.36</v>
-      </c>
-      <c r="X432">
+      <c r="AB432">
+        <v>1.08</v>
+      </c>
+      <c r="AC432">
+        <v>2</v>
+      </c>
+      <c r="AD432">
+        <v>3.35</v>
+      </c>
+      <c r="AE432">
+        <v>3.25</v>
+      </c>
+      <c r="AF432">
+        <v>1.05</v>
+      </c>
+      <c r="AG432">
+        <v>11.5</v>
+      </c>
+      <c r="AH432">
+        <v>1.33</v>
+      </c>
+      <c r="AI432">
+        <v>3.2</v>
+      </c>
+      <c r="AJ432">
+        <v>1.91</v>
+      </c>
+      <c r="AK432">
+        <v>1.73</v>
+      </c>
+      <c r="AL432">
+        <v>1.91</v>
+      </c>
+      <c r="AM432">
+        <v>1.91</v>
+      </c>
+      <c r="AN432">
+        <v>1.29</v>
+      </c>
+      <c r="AO432">
+        <v>1.28</v>
+      </c>
+      <c r="AP432">
+        <v>1.71</v>
+      </c>
+      <c r="AQ432">
+        <v>2.17</v>
+      </c>
+      <c r="AR432">
+        <v>0.82</v>
+      </c>
+      <c r="AS432">
+        <v>2.25</v>
+      </c>
+      <c r="AT432">
+        <v>0.79</v>
+      </c>
+      <c r="AU432">
+        <v>1.53</v>
+      </c>
+      <c r="AV432">
+        <v>1.33</v>
+      </c>
+      <c r="AW432">
+        <v>2.86</v>
+      </c>
+      <c r="AX432">
+        <v>1.62</v>
+      </c>
+      <c r="AY432">
+        <v>7.6</v>
+      </c>
+      <c r="AZ432">
+        <v>2.71</v>
+      </c>
+      <c r="BA432">
+        <v>1.23</v>
+      </c>
+      <c r="BB432">
+        <v>1.51</v>
+      </c>
+      <c r="BC432">
+        <v>1.84</v>
+      </c>
+      <c r="BD432">
+        <v>2.28</v>
+      </c>
+      <c r="BE432">
+        <v>3.08</v>
+      </c>
+      <c r="BF432">
         <v>3</v>
       </c>
-      <c r="Y432">
-        <v>2.63</v>
-      </c>
-      <c r="Z432">
-        <v>1.44</v>
-      </c>
-      <c r="AA432">
+      <c r="BG432">
+        <v>0</v>
+      </c>
+      <c r="BH432">
+        <v>4</v>
+      </c>
+      <c r="BI432">
+        <v>6</v>
+      </c>
+      <c r="BJ432">
         <v>7</v>
       </c>
-      <c r="AB432">
-        <v>1.1</v>
-      </c>
-      <c r="AC432">
-        <v>1.4</v>
-      </c>
-      <c r="AD432">
-        <v>4.2</v>
-      </c>
-      <c r="AE432">
-        <v>7</v>
-      </c>
-      <c r="AF432">
-        <v>1.04</v>
-      </c>
-      <c r="AG432">
-        <v>13</v>
-      </c>
-      <c r="AH432">
-        <v>1.25</v>
-      </c>
-      <c r="AI432">
-        <v>3.75</v>
-      </c>
-      <c r="AJ432">
-        <v>1.75</v>
-      </c>
-      <c r="AK432">
-        <v>1.91</v>
-      </c>
-      <c r="AL432">
-        <v>1.95</v>
-      </c>
-      <c r="AM432">
-        <v>1.8</v>
-      </c>
-      <c r="AN432">
-        <v>1.09</v>
-      </c>
-      <c r="AO432">
-        <v>1.19</v>
-      </c>
-      <c r="AP432">
-        <v>2.54</v>
-      </c>
-      <c r="AQ432">
-        <v>2</v>
-      </c>
-      <c r="AR432">
-        <v>0.67</v>
-      </c>
-      <c r="AS432">
-        <v>1.94</v>
-      </c>
-      <c r="AT432">
-        <v>0.67</v>
-      </c>
-      <c r="AU432">
-        <v>1.96</v>
-      </c>
-      <c r="AV432">
-        <v>1.16</v>
-      </c>
-      <c r="AW432">
-        <v>3.12</v>
-      </c>
-      <c r="AX432">
-        <v>1.11</v>
-      </c>
-      <c r="AY432">
-        <v>11.75</v>
-      </c>
-      <c r="AZ432">
-        <v>7.5</v>
-      </c>
-      <c r="BA432">
-        <v>0</v>
-      </c>
-      <c r="BB432">
-        <v>1.32</v>
-      </c>
-      <c r="BC432">
-        <v>1.63</v>
-      </c>
-      <c r="BD432">
-        <v>2</v>
-      </c>
-      <c r="BE432">
-        <v>2.6</v>
-      </c>
-      <c r="BF432">
+      <c r="BK432">
         <v>6</v>
-      </c>
-      <c r="BG432">
-        <v>3</v>
-      </c>
-      <c r="BH432">
-        <v>7</v>
-      </c>
-      <c r="BI432">
-        <v>1</v>
-      </c>
-      <c r="BJ432">
-        <v>13</v>
-      </c>
-      <c r="BK432">
-        <v>4</v>
       </c>
     </row>
     <row r="433" spans="1:63">
@@ -86213,7 +86213,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>2803611</v>
+        <v>2803610</v>
       </c>
       <c r="C442" t="s">
         <v>63</v>
@@ -86228,175 +86228,175 @@
         <v>39</v>
       </c>
       <c r="G442" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H442" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I442">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J442">
         <v>0</v>
       </c>
       <c r="K442">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L442">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M442">
         <v>1</v>
       </c>
       <c r="N442">
+        <v>2</v>
+      </c>
+      <c r="O442" t="s">
+        <v>113</v>
+      </c>
+      <c r="P442" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q442">
+        <v>7</v>
+      </c>
+      <c r="R442">
         <v>3</v>
       </c>
-      <c r="O442" t="s">
-        <v>362</v>
-      </c>
-      <c r="P442" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q442">
-        <v>5</v>
-      </c>
-      <c r="R442">
+      <c r="S442">
+        <v>10</v>
+      </c>
+      <c r="T442">
+        <v>2.3</v>
+      </c>
+      <c r="U442">
+        <v>2.3</v>
+      </c>
+      <c r="V442">
+        <v>4.2</v>
+      </c>
+      <c r="W442">
+        <v>1.32</v>
+      </c>
+      <c r="X442">
+        <v>3.15</v>
+      </c>
+      <c r="Y442">
+        <v>2.5</v>
+      </c>
+      <c r="Z442">
+        <v>1.47</v>
+      </c>
+      <c r="AA442">
+        <v>5.95</v>
+      </c>
+      <c r="AB442">
+        <v>1.1</v>
+      </c>
+      <c r="AC442">
+        <v>1.73</v>
+      </c>
+      <c r="AD442">
+        <v>3.65</v>
+      </c>
+      <c r="AE442">
+        <v>3.95</v>
+      </c>
+      <c r="AF442">
+        <v>1.03</v>
+      </c>
+      <c r="AG442">
+        <v>15</v>
+      </c>
+      <c r="AH442">
+        <v>1.22</v>
+      </c>
+      <c r="AI442">
+        <v>4</v>
+      </c>
+      <c r="AJ442">
+        <v>1.75</v>
+      </c>
+      <c r="AK442">
+        <v>1.95</v>
+      </c>
+      <c r="AL442">
+        <v>1.68</v>
+      </c>
+      <c r="AM442">
+        <v>2.1</v>
+      </c>
+      <c r="AN442">
+        <v>1.18</v>
+      </c>
+      <c r="AO442">
+        <v>1.2</v>
+      </c>
+      <c r="AP442">
+        <v>2</v>
+      </c>
+      <c r="AQ442">
+        <v>1.13</v>
+      </c>
+      <c r="AR442">
+        <v>0.71</v>
+      </c>
+      <c r="AS442">
+        <v>1.12</v>
+      </c>
+      <c r="AT442">
+        <v>0.72</v>
+      </c>
+      <c r="AU442">
+        <v>1.7</v>
+      </c>
+      <c r="AV442">
+        <v>1.13</v>
+      </c>
+      <c r="AW442">
+        <v>2.83</v>
+      </c>
+      <c r="AX442">
+        <v>1.34</v>
+      </c>
+      <c r="AY442">
+        <v>8.6</v>
+      </c>
+      <c r="AZ442">
+        <v>3.92</v>
+      </c>
+      <c r="BA442">
+        <v>1.2</v>
+      </c>
+      <c r="BB442">
+        <v>1.39</v>
+      </c>
+      <c r="BC442">
+        <v>1.78</v>
+      </c>
+      <c r="BD442">
+        <v>2.2</v>
+      </c>
+      <c r="BE442">
+        <v>2.93</v>
+      </c>
+      <c r="BF442">
         <v>6</v>
-      </c>
-      <c r="S442">
-        <v>11</v>
-      </c>
-      <c r="T442">
-        <v>2.42</v>
-      </c>
-      <c r="U442">
-        <v>2.14</v>
-      </c>
-      <c r="V442">
-        <v>4.46</v>
-      </c>
-      <c r="W442">
-        <v>1.36</v>
-      </c>
-      <c r="X442">
-        <v>3</v>
-      </c>
-      <c r="Y442">
-        <v>2.75</v>
-      </c>
-      <c r="Z442">
-        <v>1.4</v>
-      </c>
-      <c r="AA442">
-        <v>8</v>
-      </c>
-      <c r="AB442">
-        <v>1.08</v>
-      </c>
-      <c r="AC442">
-        <v>1.9</v>
-      </c>
-      <c r="AD442">
-        <v>3.4</v>
-      </c>
-      <c r="AE442">
-        <v>3.75</v>
-      </c>
-      <c r="AF442">
-        <v>1.04</v>
-      </c>
-      <c r="AG442">
-        <v>12</v>
-      </c>
-      <c r="AH442">
-        <v>1.27</v>
-      </c>
-      <c r="AI442">
-        <v>3.4</v>
-      </c>
-      <c r="AJ442">
-        <v>1.85</v>
-      </c>
-      <c r="AK442">
-        <v>1.85</v>
-      </c>
-      <c r="AL442">
-        <v>1.75</v>
-      </c>
-      <c r="AM442">
-        <v>1.95</v>
-      </c>
-      <c r="AN442">
-        <v>1.24</v>
-      </c>
-      <c r="AO442">
-        <v>1.26</v>
-      </c>
-      <c r="AP442">
-        <v>1.85</v>
-      </c>
-      <c r="AQ442">
-        <v>1.42</v>
-      </c>
-      <c r="AR442">
-        <v>0.42</v>
-      </c>
-      <c r="AS442">
-        <v>1.5</v>
-      </c>
-      <c r="AT442">
-        <v>0.4</v>
-      </c>
-      <c r="AU442">
-        <v>1.62</v>
-      </c>
-      <c r="AV442">
-        <v>1.18</v>
-      </c>
-      <c r="AW442">
-        <v>2.8</v>
-      </c>
-      <c r="AX442">
-        <v>1.48</v>
-      </c>
-      <c r="AY442">
-        <v>8</v>
-      </c>
-      <c r="AZ442">
-        <v>3.15</v>
-      </c>
-      <c r="BA442">
-        <v>0</v>
-      </c>
-      <c r="BB442">
-        <v>1.35</v>
-      </c>
-      <c r="BC442">
-        <v>1.69</v>
-      </c>
-      <c r="BD442">
-        <v>2.09</v>
-      </c>
-      <c r="BE442">
-        <v>2.71</v>
-      </c>
-      <c r="BF442">
-        <v>7</v>
       </c>
       <c r="BG442">
         <v>4</v>
       </c>
       <c r="BH442">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="BI442">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ442">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BK442">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="443" spans="1:63">
@@ -86443,7 +86443,7 @@
         <v>3</v>
       </c>
       <c r="O443" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P443" t="s">
         <v>146</v>
@@ -86825,7 +86825,7 @@
         <v>2</v>
       </c>
       <c r="O445" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P445" t="s">
         <v>93</v>
@@ -87016,7 +87016,7 @@
         <v>5</v>
       </c>
       <c r="O446" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P446" t="s">
         <v>164</v>
@@ -87168,7 +87168,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>2803610</v>
+        <v>2803611</v>
       </c>
       <c r="C447" t="s">
         <v>63</v>
@@ -87183,175 +87183,175 @@
         <v>39</v>
       </c>
       <c r="G447" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H447" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I447">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J447">
         <v>0</v>
       </c>
       <c r="K447">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L447">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M447">
         <v>1</v>
       </c>
       <c r="N447">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O447" t="s">
-        <v>113</v>
+        <v>365</v>
       </c>
       <c r="P447" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="Q447">
+        <v>5</v>
+      </c>
+      <c r="R447">
+        <v>6</v>
+      </c>
+      <c r="S447">
+        <v>11</v>
+      </c>
+      <c r="T447">
+        <v>2.42</v>
+      </c>
+      <c r="U447">
+        <v>2.14</v>
+      </c>
+      <c r="V447">
+        <v>4.46</v>
+      </c>
+      <c r="W447">
+        <v>1.36</v>
+      </c>
+      <c r="X447">
+        <v>3</v>
+      </c>
+      <c r="Y447">
+        <v>2.75</v>
+      </c>
+      <c r="Z447">
+        <v>1.4</v>
+      </c>
+      <c r="AA447">
+        <v>8</v>
+      </c>
+      <c r="AB447">
+        <v>1.08</v>
+      </c>
+      <c r="AC447">
+        <v>1.9</v>
+      </c>
+      <c r="AD447">
+        <v>3.4</v>
+      </c>
+      <c r="AE447">
+        <v>3.75</v>
+      </c>
+      <c r="AF447">
+        <v>1.04</v>
+      </c>
+      <c r="AG447">
+        <v>12</v>
+      </c>
+      <c r="AH447">
+        <v>1.27</v>
+      </c>
+      <c r="AI447">
+        <v>3.4</v>
+      </c>
+      <c r="AJ447">
+        <v>1.85</v>
+      </c>
+      <c r="AK447">
+        <v>1.85</v>
+      </c>
+      <c r="AL447">
+        <v>1.75</v>
+      </c>
+      <c r="AM447">
+        <v>1.95</v>
+      </c>
+      <c r="AN447">
+        <v>1.24</v>
+      </c>
+      <c r="AO447">
+        <v>1.26</v>
+      </c>
+      <c r="AP447">
+        <v>1.85</v>
+      </c>
+      <c r="AQ447">
+        <v>1.42</v>
+      </c>
+      <c r="AR447">
+        <v>0.42</v>
+      </c>
+      <c r="AS447">
+        <v>1.5</v>
+      </c>
+      <c r="AT447">
+        <v>0.4</v>
+      </c>
+      <c r="AU447">
+        <v>1.62</v>
+      </c>
+      <c r="AV447">
+        <v>1.18</v>
+      </c>
+      <c r="AW447">
+        <v>2.8</v>
+      </c>
+      <c r="AX447">
+        <v>1.48</v>
+      </c>
+      <c r="AY447">
+        <v>8</v>
+      </c>
+      <c r="AZ447">
+        <v>3.15</v>
+      </c>
+      <c r="BA447">
+        <v>0</v>
+      </c>
+      <c r="BB447">
+        <v>1.35</v>
+      </c>
+      <c r="BC447">
+        <v>1.69</v>
+      </c>
+      <c r="BD447">
+        <v>2.09</v>
+      </c>
+      <c r="BE447">
+        <v>2.71</v>
+      </c>
+      <c r="BF447">
         <v>7</v>
-      </c>
-      <c r="R447">
-        <v>3</v>
-      </c>
-      <c r="S447">
-        <v>10</v>
-      </c>
-      <c r="T447">
-        <v>2.3</v>
-      </c>
-      <c r="U447">
-        <v>2.3</v>
-      </c>
-      <c r="V447">
-        <v>4.2</v>
-      </c>
-      <c r="W447">
-        <v>1.32</v>
-      </c>
-      <c r="X447">
-        <v>3.15</v>
-      </c>
-      <c r="Y447">
-        <v>2.5</v>
-      </c>
-      <c r="Z447">
-        <v>1.47</v>
-      </c>
-      <c r="AA447">
-        <v>5.95</v>
-      </c>
-      <c r="AB447">
-        <v>1.1</v>
-      </c>
-      <c r="AC447">
-        <v>1.73</v>
-      </c>
-      <c r="AD447">
-        <v>3.65</v>
-      </c>
-      <c r="AE447">
-        <v>3.95</v>
-      </c>
-      <c r="AF447">
-        <v>1.03</v>
-      </c>
-      <c r="AG447">
-        <v>15</v>
-      </c>
-      <c r="AH447">
-        <v>1.22</v>
-      </c>
-      <c r="AI447">
-        <v>4</v>
-      </c>
-      <c r="AJ447">
-        <v>1.75</v>
-      </c>
-      <c r="AK447">
-        <v>1.95</v>
-      </c>
-      <c r="AL447">
-        <v>1.68</v>
-      </c>
-      <c r="AM447">
-        <v>2.1</v>
-      </c>
-      <c r="AN447">
-        <v>1.18</v>
-      </c>
-      <c r="AO447">
-        <v>1.2</v>
-      </c>
-      <c r="AP447">
-        <v>2</v>
-      </c>
-      <c r="AQ447">
-        <v>1.13</v>
-      </c>
-      <c r="AR447">
-        <v>0.71</v>
-      </c>
-      <c r="AS447">
-        <v>1.12</v>
-      </c>
-      <c r="AT447">
-        <v>0.72</v>
-      </c>
-      <c r="AU447">
-        <v>1.7</v>
-      </c>
-      <c r="AV447">
-        <v>1.13</v>
-      </c>
-      <c r="AW447">
-        <v>2.83</v>
-      </c>
-      <c r="AX447">
-        <v>1.34</v>
-      </c>
-      <c r="AY447">
-        <v>8.6</v>
-      </c>
-      <c r="AZ447">
-        <v>3.92</v>
-      </c>
-      <c r="BA447">
-        <v>1.2</v>
-      </c>
-      <c r="BB447">
-        <v>1.39</v>
-      </c>
-      <c r="BC447">
-        <v>1.78</v>
-      </c>
-      <c r="BD447">
-        <v>2.2</v>
-      </c>
-      <c r="BE447">
-        <v>2.93</v>
-      </c>
-      <c r="BF447">
-        <v>6</v>
       </c>
       <c r="BG447">
         <v>4</v>
       </c>
       <c r="BH447">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BI447">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ447">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BK447">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="448" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/England National League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England National League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK481"/>
+  <dimension ref="A1:BK482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
         <v>1.14</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT24" t="n">
         <v>1.48</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT36" t="n">
         <v>2.29</v>
@@ -9429,7 +9429,7 @@
         <v>1.65</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU44" t="n">
         <v>1.55</v>
@@ -12674,7 +12674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT60" t="n">
         <v>1.2</v>
@@ -13286,7 +13286,7 @@
         <v>1.6</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU63" t="n">
         <v>1.39</v>
@@ -17546,7 +17546,7 @@
         <v>1.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT84" t="n">
         <v>0.4</v>
@@ -18361,7 +18361,7 @@
         <v>2.25</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU88" t="n">
         <v>1.43</v>
@@ -20794,7 +20794,7 @@
         <v>3</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT100" t="n">
         <v>1.71</v>
@@ -25463,7 +25463,7 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT123" t="n">
         <v>0.95</v>
@@ -26684,7 +26684,7 @@
         <v>1.55</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU129" t="n">
         <v>2.25</v>
@@ -28308,7 +28308,7 @@
         <v>1.7</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU137" t="n">
         <v>1.45</v>
@@ -28711,7 +28711,7 @@
         <v>0.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT139" t="n">
         <v>0.95</v>
@@ -32977,7 +32977,7 @@
         <v>1.63</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU160" t="n">
         <v>1.45</v>
@@ -33177,7 +33177,7 @@
         <v>1.14</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT161" t="n">
         <v>1.8</v>
@@ -38455,7 +38455,7 @@
         <v>1.71</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT187" t="n">
         <v>1.15</v>
@@ -38864,7 +38864,7 @@
         <v>0.76</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU189" t="n">
         <v>1.72</v>
@@ -40285,7 +40285,7 @@
         <v>1.8</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU196" t="n">
         <v>1.79</v>
@@ -46781,7 +46781,7 @@
         <v>2.45</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU228" t="n">
         <v>2.15</v>
@@ -47184,7 +47184,7 @@
         <v>1.67</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT230" t="n">
         <v>1.25</v>
@@ -51041,7 +51041,7 @@
         <v>1</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT249" t="n">
         <v>1.2</v>
@@ -54698,7 +54698,7 @@
         <v>0.9</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU267" t="n">
         <v>1.39</v>
@@ -59364,7 +59364,7 @@
         <v>1.25</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT290" t="n">
         <v>0.9</v>
@@ -62209,7 +62209,7 @@
         <v>1.57</v>
       </c>
       <c r="AT304" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU304" t="n">
         <v>1.6</v>
@@ -63627,7 +63627,7 @@
         <v>1.86</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT311" t="n">
         <v>2.1</v>
@@ -65660,7 +65660,7 @@
         <v>1.62</v>
       </c>
       <c r="AT321" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU321" t="n">
         <v>1.43</v>
@@ -77637,7 +77637,7 @@
         <v>1.48</v>
       </c>
       <c r="AT380" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU380" t="n">
         <v>1.67</v>
@@ -78040,7 +78040,7 @@
         <v>0.57</v>
       </c>
       <c r="AS382" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT382" t="n">
         <v>0.76</v>
@@ -78652,7 +78652,7 @@
         <v>1.29</v>
       </c>
       <c r="AT385" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU385" t="n">
         <v>1.46</v>
@@ -84739,7 +84739,7 @@
         <v>1.31</v>
       </c>
       <c r="AS415" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT415" t="n">
         <v>1.62</v>
@@ -86160,7 +86160,7 @@
         <v>0.78</v>
       </c>
       <c r="AS422" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT422" t="n">
         <v>0.75</v>
@@ -87381,7 +87381,7 @@
         <v>2</v>
       </c>
       <c r="AT428" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU428" t="n">
         <v>1.96</v>
@@ -89411,7 +89411,7 @@
         <v>1.89</v>
       </c>
       <c r="AT438" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU438" t="n">
         <v>1.54</v>
@@ -91235,7 +91235,7 @@
         <v>0.71</v>
       </c>
       <c r="AS447" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT447" t="n">
         <v>0.95</v>
@@ -91441,7 +91441,7 @@
         <v>1.63</v>
       </c>
       <c r="AT448" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU448" t="n">
         <v>1.48</v>
@@ -95904,7 +95904,7 @@
         <v>1.17</v>
       </c>
       <c r="AS470" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT470" t="n">
         <v>1.11</v>
@@ -98192,6 +98192,209 @@
       </c>
       <c r="BK481" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B482" t="n">
+        <v>2803526</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>England National League</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E482" s="2" t="n">
+        <v>45020.65625</v>
+      </c>
+      <c r="F482" t="n">
+        <v>32</v>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>Gateshead</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>Yeovil Town</t>
+        </is>
+      </c>
+      <c r="I482" t="n">
+        <v>2</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0</v>
+      </c>
+      <c r="K482" t="n">
+        <v>2</v>
+      </c>
+      <c r="L482" t="n">
+        <v>4</v>
+      </c>
+      <c r="M482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N482" t="n">
+        <v>4</v>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>['19', '27', '55', '88']</t>
+        </is>
+      </c>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q482" t="n">
+        <v>5</v>
+      </c>
+      <c r="R482" t="n">
+        <v>2</v>
+      </c>
+      <c r="S482" t="n">
+        <v>7</v>
+      </c>
+      <c r="T482" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U482" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V482" t="n">
+        <v>4</v>
+      </c>
+      <c r="W482" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X482" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y482" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z482" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA482" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB482" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC482" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD482" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE482" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF482" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG482" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH482" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI482" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ482" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK482" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL482" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM482" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN482" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO482" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP482" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ482" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR482" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS482" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT482" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU482" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV482" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW482" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX482" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY482" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ482" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA482" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB482" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC482" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD482" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE482" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF482" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG482" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH482" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI482" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ482" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK482" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
